--- a/data/sumup/results test train nfold.xlsx
+++ b/data/sumup/results test train nfold.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="32">
   <si>
     <t>DecisionTreeClassifier 1</t>
   </si>
@@ -119,10 +119,10 @@
     <t>modele z selekcją atrybutów</t>
   </si>
   <si>
-    <t>średnia uzyskana jakość</t>
+    <t xml:space="preserve">diff 8 </t>
   </si>
   <si>
-    <t xml:space="preserve">diff 8 </t>
+    <t xml:space="preserve">Jakość </t>
   </si>
 </sst>
 </file>
@@ -227,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -240,37 +240,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -282,6 +255,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutralny" xfId="1" builtinId="28"/>
@@ -4555,7 +4558,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4568,23 +4571,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Wykres jakości</a:t>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wykres średniej jakości modeli, podczas testowania metodą kroswalidacji na zbiorze o klasie na podstawie przesunięcia 8 i atrybutach wygenerowanych przesunięciem.</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> modeli na zbiorze o klasie na podstawie przesunięcia 8 </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t>oraz dodatkowymi atrybutami wyliczonymi na podstawie przesunięcia.</a:t>
-            </a:r>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4602,7 +4596,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4626,353 +4620,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nfold ta'!#REF!</c:f>
+              <c:f>'nfold diff'!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nfold diff'!$F$6:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>DecisionTreeClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DecisionTreeClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DecisionTreeClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RandomForestClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RandomForestClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>RandomForestClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GradientBoostingClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GradientBoostingClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>XGBRFClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>XGBRFClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>XGBClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>XGBClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SXGBClassifier 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nfold ta'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E76-442A-B5FF-FAAC8BD9BE88}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nfold diff'!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nfold diff'!$F$6:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>DecisionTreeClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DecisionTreeClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DecisionTreeClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RandomForestClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RandomForestClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>RandomForestClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GradientBoostingClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GradientBoostingClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>XGBRFClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>XGBRFClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>XGBClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>XGBClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SXGBClassifier 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nfold diff'!$I$6:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5E76-442A-B5FF-FAAC8BD9BE88}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nfold diff'!$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nfold diff'!$F$6:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>DecisionTreeClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DecisionTreeClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DecisionTreeClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RandomForestClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RandomForestClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>RandomForestClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GradientBoostingClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GradientBoostingClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>XGBRFClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>XGBRFClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>XGBClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>XGBClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SXGBClassifier 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nfold diff'!$J$6:$J$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5E76-442A-B5FF-FAAC8BD9BE88}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nfold diff'!$K$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nfold diff'!$F$6:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>DecisionTreeClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DecisionTreeClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DecisionTreeClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RandomForestClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RandomForestClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>RandomForestClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GradientBoostingClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GradientBoostingClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>XGBRFClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>XGBRFClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>XGBClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>XGBClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SXGBClassifier 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nfold diff'!$K$6:$K$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5E76-442A-B5FF-FAAC8BD9BE88}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nfold diff'!$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>średnia uzyskana jakość</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5038,13 +4694,13 @@
             <c:numRef>
               <c:f>'nfold diff'!$G$6:$G$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.61290322580645096</c:v>
+                  <c:v>0.51200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61100569259962001</c:v>
+                  <c:v>0.51900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.60531309297912705</c:v>
@@ -5071,13 +4727,13 @@
                   <c:v>0.55218216318785496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70777988614800702</c:v>
+                  <c:v>0.63531159999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70208728652751395</c:v>
+                  <c:v>0.65351000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79316888045540801</c:v>
+                  <c:v>0.63022100000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5099,7 +4755,319 @@
         <c:gapWidth val="150"/>
         <c:axId val="2027328287"/>
         <c:axId val="2027324959"/>
-        <c:extLst/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'nfold diff'!$I$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'nfold diff'!$F$6:$F$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>DecisionTreeClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DecisionTreeClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>DecisionTreeClassifier 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RandomForestClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>RandomForestClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>RandomForestClassifier 3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>GradientBoostingClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>GradientBoostingClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>XGBRFClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>XGBRFClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>XGBClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>XGBClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>SXGBClassifier 1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'nfold diff'!$I$6:$I$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="14"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5E76-442A-B5FF-FAAC8BD9BE88}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'nfold diff'!$J$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'nfold diff'!$F$6:$F$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>DecisionTreeClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DecisionTreeClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>DecisionTreeClassifier 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RandomForestClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>RandomForestClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>RandomForestClassifier 3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>GradientBoostingClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>GradientBoostingClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>XGBRFClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>XGBRFClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>XGBClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>XGBClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>SXGBClassifier 1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'nfold diff'!$J$6:$J$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="14"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-5E76-442A-B5FF-FAAC8BD9BE88}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'nfold diff'!$K$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'nfold diff'!$F$6:$F$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>DecisionTreeClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DecisionTreeClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>DecisionTreeClassifier 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RandomForestClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>RandomForestClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>RandomForestClassifier 3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>GradientBoostingClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>GradientBoostingClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>XGBRFClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>XGBRFClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>XGBClassifier 1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>XGBClassifier 2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>SXGBClassifier 1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'nfold diff'!$K$6:$K$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="14"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5E76-442A-B5FF-FAAC8BD9BE88}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="2027328287"/>
@@ -5186,7 +5154,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5212,6 +5180,7 @@
         <c:axId val="2027324959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5285,7 +5254,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5402,29 +5371,58 @@
               <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Wykres jakości modeli na zbiorze o klasie na podstawie przesunięcia 16 </a:t>
+              <a:t>Wykres średniej jakości modeli</a:t>
             </a:r>
-            <a:endParaRPr lang="pl-PL">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>podczas testowania metodą kroswalidacji</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>oraz dodatkowymi atrybutami wyliczonymi na podstawie przesunięcia.</a:t>
+              <a:t>na zbiorze o klasie na podstawie przesunięcia 16</a:t>
             </a:r>
-            <a:endParaRPr lang="pl-PL">
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>i atrybutach wygenerowanych przesunięciem.</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12795067297475352"/>
+          <c:y val="1.1456429409827001E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5466,11 +5464,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nfold diff'!$H$5</c:f>
+              <c:f>'nfold diff'!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>średnia uzyskana jakość</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5539,8 +5537,50 @@
             <c:numRef>
               <c:f>'nfold diff'!$H$6:$H$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.52561669829222002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51233396584440205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43453510436432602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41745730550284599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43643263757115702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44971537001897499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61290322580645096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69829222011385195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.423149905123339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53130929791271297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5675,7 +5715,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold diff'!$N$5</c15:sqref>
@@ -5699,7 +5739,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold diff'!$F$6:$F$19</c15:sqref>
@@ -5755,7 +5795,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold diff'!$N$6:$N$19</c15:sqref>
@@ -5781,7 +5821,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold diff'!$O$5</c15:sqref>
@@ -5805,7 +5845,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold diff'!$F$6:$F$19</c15:sqref>
@@ -5861,7 +5901,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold diff'!$O$6:$O$19</c15:sqref>
@@ -5887,7 +5927,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold diff'!$P$5</c15:sqref>
@@ -5911,7 +5951,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold diff'!$F$6:$F$19</c15:sqref>
@@ -5967,7 +6007,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold diff'!$P$6:$P$19</c15:sqref>
@@ -6075,7 +6115,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6101,6 +6141,7 @@
         <c:axId val="2027324959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6125,7 +6166,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6138,7 +6179,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1200"/>
                   <a:t>Jakość/accuracy</a:t>
                 </a:r>
               </a:p>
@@ -6158,7 +6199,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6174,7 +6215,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6275,7 +6316,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6288,23 +6329,33 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Wykres jakości</a:t>
+              <a:rPr lang="pl-PL" sz="1800"/>
+              <a:t>Wykres średniej jakości</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> modeli na zbiorze o klasie na podstawie przesunięcia 8 </a:t>
+              <a:rPr lang="pl-PL" sz="1800" baseline="0"/>
+              <a:t> modeli </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>podczas testowania metodą kroswalidacji</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" baseline="0"/>
+              <a:t> na zbiorze</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t>oraz dodatkowymi atrybutami wyliczonymi na podstawie przesunięcia.</a:t>
+              <a:rPr lang="pl-PL" sz="1800" baseline="0"/>
+              <a:t> o klasie na podstawie przesunięcia 8 i atrybutach analizy technicznej.</a:t>
             </a:r>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="pl-PL" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6322,7 +6373,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6346,357 +6397,8 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nfold ta'!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nfold ta'!$F$6:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>DecisionTreeClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DecisionTreeClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DecisionTreeClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RandomForestClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RandomForestClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>RandomForestClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GradientBoostingClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GradientBoostingClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>XGBRFClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>XGBRFClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>XGBClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>XGBClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SXGBClassifier 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nfold ta'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE61-4C50-8155-74F7B7C2A9ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nfold ta'!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nfold ta'!$F$6:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>DecisionTreeClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DecisionTreeClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DecisionTreeClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RandomForestClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RandomForestClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>RandomForestClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GradientBoostingClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GradientBoostingClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>XGBRFClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>XGBRFClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>XGBClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>XGBClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SXGBClassifier 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nfold ta'!$I$6:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FE61-4C50-8155-74F7B7C2A9ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nfold ta'!$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nfold ta'!$F$6:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>DecisionTreeClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DecisionTreeClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DecisionTreeClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RandomForestClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RandomForestClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>RandomForestClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GradientBoostingClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GradientBoostingClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>XGBRFClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>XGBRFClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>XGBClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>XGBClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SXGBClassifier 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nfold ta'!$J$6:$J$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FE61-4C50-8155-74F7B7C2A9ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nfold ta'!$K$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nfold ta'!$F$6:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>DecisionTreeClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DecisionTreeClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DecisionTreeClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RandomForestClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RandomForestClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>RandomForestClassifier 3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GradientBoostingClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GradientBoostingClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>XGBRFClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>XGBRFClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>XGBClassifier 1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>XGBClassifier 2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SXGBClassifier 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nfold ta'!$K$6:$K$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FE61-4C50-8155-74F7B7C2A9ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nfold ta'!$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>średnia uzyskana jakość</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -6709,9 +6411,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'nfold ta'!$F$6:$F$18</c:f>
+              <c:f>'nfold ta'!$F$6:$F$19</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>DecisionTreeClassifier 1</c:v>
                 </c:pt>
@@ -6750,16 +6452,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>SXGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SXGBClassifier 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nfold ta'!$G$6:$G$18</c:f>
+              <c:f>'nfold ta'!$G$6:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.47438330170777898</c:v>
                 </c:pt>
@@ -6779,13 +6484,13 @@
                   <c:v>0.53889943074003699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56736242884250399</c:v>
+                  <c:v>0.60756302521008299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55028462998102401</c:v>
+                  <c:v>0.62016806722689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39089184060720999</c:v>
+                  <c:v>0.46386554621848702</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.53130929791271297</c:v>
@@ -6797,14 +6502,38 @@
                   <c:v>0.55218216318785496</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51043643263757099</c:v>
+                  <c:v>0.58319327731092396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59915966386554598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'nfold ta'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FE61-4C50-8155-74F7B7C2A9ED}"/>
+              <c16:uniqueId val="{00000002-1D20-4B3C-8C78-5D6AD0A3EF66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6906,7 +6635,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7005,7 +6734,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7122,7 +6851,7 @@
               <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Wykres jakości modeli na zbiorze o klasie na podstawie przesunięcia 16 </a:t>
+              <a:t>Wykres średniej jakości modeli podczas testowania metodą kroswalidacji na zbiorze</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL">
               <a:effectLst/>
@@ -7136,7 +6865,7 @@
               <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>oraz dodatkowymi atrybutami wyliczonymi na podstawie przesunięcia.</a:t>
+              <a:t> o klasie na podstawie przesunięcia 16 i atrybutach analizy technicznej.</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL">
               <a:effectLst/>
@@ -7186,11 +6915,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nfold ta'!$H$5</c:f>
+              <c:f>'nfold ta'!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>średnia uzyskana jakość</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7259,49 +6988,49 @@
             <c:numRef>
               <c:f>'nfold ta'!$H$6:$H$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.61290322580645096</c:v>
+                  <c:v>0.51992409867172595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61100569259962001</c:v>
+                  <c:v>0.52561669829222002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60531309297912705</c:v>
+                  <c:v>0.50094876660341503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46299810246679302</c:v>
+                  <c:v>0.54838709677419295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.453510436432637</c:v>
+                  <c:v>0.5426944971537</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.607210626185958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61480075901328202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.47058823529411697</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57115749525616599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.68121442125237197</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.48766603415559701</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55218216318785496</c:v>
+                  <c:v>0.58633776091081502</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70777988614800702</c:v>
+                  <c:v>0.66603415559772305</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70208728652751395</c:v>
+                  <c:v>0.65085388994307403</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79316888045540801</c:v>
+                  <c:v>0.63022100000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81024667931688799</c:v>
+                  <c:v>0.67532000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7437,7 +7166,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold ta'!$N$5</c15:sqref>
@@ -7461,7 +7190,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold ta'!$F$6:$F$19</c15:sqref>
@@ -7517,7 +7246,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold ta'!$N$6:$N$19</c15:sqref>
@@ -7543,7 +7272,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold ta'!$O$5</c15:sqref>
@@ -7567,7 +7296,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold ta'!$F$6:$F$19</c15:sqref>
@@ -7623,7 +7352,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold ta'!$O$6:$O$19</c15:sqref>
@@ -7649,7 +7378,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold ta'!$P$5</c15:sqref>
@@ -7673,7 +7402,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold ta'!$F$6:$F$19</c15:sqref>
@@ -7729,7 +7458,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'nfold ta'!$P$6:$P$19</c15:sqref>
@@ -7837,7 +7566,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7936,7 +7665,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12604,16 +12333,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>18292</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380241</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>27751</xdr:rowOff>
+      <xdr:rowOff>103951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12636,16 +12365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76842</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324492</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>44787</xdr:rowOff>
+      <xdr:rowOff>159087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12673,16 +12402,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>18292</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>427867</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>27751</xdr:rowOff>
+      <xdr:rowOff>113476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12706,15 +12435,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>76842</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44787</xdr:rowOff>
+      <xdr:colOff>219716</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>197187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13032,20 +12761,20 @@
       <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="25">
         <v>8</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17">
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25">
         <v>16</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -13058,34 +12787,34 @@
       <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="13">
         <v>512</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="13">
         <v>256</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="13">
         <v>128</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="13">
         <v>64</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="13">
         <v>512</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="13">
         <v>256</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="13">
         <v>128</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="13">
         <v>64</v>
       </c>
     </row>
@@ -13093,7 +12822,7 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="29" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -13134,7 +12863,7 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
@@ -13173,7 +12902,7 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
@@ -13212,7 +12941,7 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
@@ -13251,7 +12980,7 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
@@ -13290,7 +13019,7 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
@@ -13329,7 +13058,7 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
@@ -13368,7 +13097,7 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
@@ -13407,7 +13136,7 @@
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
@@ -13446,7 +13175,7 @@
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="3" t="s">
         <v>25</v>
       </c>
@@ -13485,7 +13214,7 @@
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="3" t="s">
         <v>4</v>
       </c>
@@ -13524,7 +13253,7 @@
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
@@ -13563,7 +13292,7 @@
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -13604,7 +13333,7 @@
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
@@ -13663,7 +13392,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="13"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -13675,7 +13404,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E24" s="13"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -13687,7 +13416,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" s="13"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -13699,7 +13428,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="13"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -13711,7 +13440,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="13"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -13723,7 +13452,7 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="13"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -13735,7 +13464,7 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="13"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -13747,7 +13476,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="13"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="3"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -13759,7 +13488,7 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="13"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="3"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -13771,7 +13500,7 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="13"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -13783,7 +13512,7 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="13"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="3"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -13814,14 +13543,14 @@
     </row>
     <row r="37" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F37" s="3"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
     </row>
     <row r="38" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F38" s="3"/>
@@ -13835,7 +13564,7 @@
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="13"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="3"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -13847,7 +13576,7 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="13"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="3"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -13859,7 +13588,7 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="13"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="3"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -13871,7 +13600,7 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="13"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="3"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -13883,7 +13612,7 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="13"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="3"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -13895,7 +13624,7 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="13"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="3"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -13907,7 +13636,7 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E45" s="13"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="3"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -13919,7 +13648,7 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E46" s="13"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="3"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -13931,7 +13660,7 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E47" s="13"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -13943,7 +13672,7 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E48" s="13"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="3"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -13955,7 +13684,7 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E49" s="13"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -14013,14 +13742,14 @@
     </row>
     <row r="54" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F54" s="3"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
     </row>
     <row r="55" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F55" s="3"/>
@@ -14034,7 +13763,7 @@
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E56" s="13"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -14046,7 +13775,7 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E57" s="13"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -14058,7 +13787,7 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E58" s="13"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -14070,7 +13799,7 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E59" s="13"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -14082,7 +13811,7 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E60" s="13"/>
+      <c r="E60" s="27"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -14094,7 +13823,7 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="13"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -14106,7 +13835,7 @@
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E62" s="13"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -14118,7 +13847,7 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="13"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -14130,7 +13859,7 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="13"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -14142,7 +13871,7 @@
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E65" s="13"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -14154,7 +13883,7 @@
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E66" s="13"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -14192,7 +13921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P66"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -14221,20 +13950,20 @@
       <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="33">
         <v>8</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="22">
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="31">
         <v>16</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -14262,19 +13991,19 @@
       <c r="K5" s="3">
         <v>64</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="16">
         <v>512</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="16">
         <v>256</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="16">
         <v>128</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="16">
         <v>64</v>
       </c>
     </row>
@@ -14282,7 +14011,7 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="29" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="s">
@@ -14303,19 +14032,19 @@
       <c r="K6" s="10">
         <v>0.375</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="17">
         <v>0.33253493013972002</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="18">
         <v>0.349609375</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="18">
         <v>0.40625</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="18">
         <v>0.375</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="18">
         <v>0.515625</v>
       </c>
     </row>
@@ -14323,7 +14052,7 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="29"/>
       <c r="F7" t="s">
         <v>1</v>
       </c>
@@ -14342,19 +14071,19 @@
       <c r="K7" s="10">
         <v>0.5</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="17">
         <v>0.338922155688622</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="18">
         <v>0.3671875</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="18">
         <v>0.4375</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="18">
         <v>0.3515625</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="18">
         <v>0.484375</v>
       </c>
     </row>
@@ -14362,7 +14091,7 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="29"/>
       <c r="F8" t="s">
         <v>2</v>
       </c>
@@ -14381,19 +14110,19 @@
       <c r="K8" s="10">
         <v>0.453125</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="17">
         <v>0.33812375249500998</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="18">
         <v>0.380859375</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="18">
         <v>0.359375</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="18">
         <v>0.359375</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="18">
         <v>0.375</v>
       </c>
     </row>
@@ -14401,7 +14130,7 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="29"/>
       <c r="F9" t="s">
         <v>13</v>
       </c>
@@ -14420,19 +14149,19 @@
       <c r="K9" s="10">
         <v>0.390625</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="17">
         <v>0.38483033932135702</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="18">
         <v>0.396484375</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="18">
         <v>0.40625</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="18">
         <v>0.3359375</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="18">
         <v>0.421875</v>
       </c>
     </row>
@@ -14440,7 +14169,7 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="29"/>
       <c r="F10" t="s">
         <v>14</v>
       </c>
@@ -14459,19 +14188,19 @@
       <c r="K10" s="10">
         <v>0.4375</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="17">
         <v>0.38483033932135702</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="18">
         <v>0.390625</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="18">
         <v>0.39453125</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="18">
         <v>0.3515625</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="18">
         <v>0.4375</v>
       </c>
     </row>
@@ -14479,7 +14208,7 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="29"/>
       <c r="F11" t="s">
         <v>15</v>
       </c>
@@ -14498,19 +14227,19 @@
       <c r="K11" s="10">
         <v>0.5625</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="17">
         <v>0.35688622754491001</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="18">
         <v>0.396484375</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="18">
         <v>0.3515625</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="18">
         <v>0.3125</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="18">
         <v>0.40625</v>
       </c>
     </row>
@@ -14518,7 +14247,7 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="29"/>
       <c r="F12" t="s">
         <v>4</v>
       </c>
@@ -14537,19 +14266,19 @@
       <c r="K12" s="10">
         <v>0.515625</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="17">
         <v>0.36007984031936102</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="18">
         <v>0.375</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="18">
         <v>0.375</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="18">
         <v>0.3515625</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="18">
         <v>0.515625</v>
       </c>
     </row>
@@ -14557,7 +14286,7 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="29"/>
       <c r="F13" t="s">
         <v>5</v>
       </c>
@@ -14576,19 +14305,19 @@
       <c r="K13" s="10">
         <v>0.5625</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="17">
         <v>0.354091816367265</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="18">
         <v>0.392578125</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="18">
         <v>0.3984375</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="18">
         <v>0.3828125</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="18">
         <v>0.453125</v>
       </c>
     </row>
@@ -14596,7 +14325,7 @@
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="29"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
@@ -14615,19 +14344,19 @@
       <c r="K14" s="10">
         <v>0.5</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="17">
         <v>0.38003992015968002</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="18">
         <v>0.39453125</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="18">
         <v>0.36328125</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="18">
         <v>0.34375</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="18">
         <v>0.4375</v>
       </c>
     </row>
@@ -14635,7 +14364,7 @@
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="29"/>
       <c r="F15" t="s">
         <v>25</v>
       </c>
@@ -14654,19 +14383,19 @@
       <c r="K15" s="10">
         <v>0.578125</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="17">
         <v>0.35848303393213499</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="18">
         <v>0.3671875</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="18">
         <v>0.390625</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="18">
         <v>0.328125</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="18">
         <v>0.40625</v>
       </c>
     </row>
@@ -14674,7 +14403,7 @@
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="29"/>
       <c r="F16" t="s">
         <v>17</v>
       </c>
@@ -14693,19 +14422,19 @@
       <c r="K16" s="10">
         <v>0.59375</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="17">
         <v>0.341716566866267</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="18">
         <v>0.392578125</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="18">
         <v>0.375</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="18">
         <v>0.390625</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="18">
         <v>0.5</v>
       </c>
     </row>
@@ -14713,7 +14442,7 @@
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="29"/>
       <c r="F17" t="s">
         <v>18</v>
       </c>
@@ -14732,19 +14461,19 @@
       <c r="K17" s="10">
         <v>0.5625</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="17">
         <v>0.34331337325349298</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="18">
         <v>0.38671875</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="18">
         <v>0.3828125</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="18">
         <v>0.4140625</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="18">
         <v>0.515625</v>
       </c>
     </row>
@@ -14752,7 +14481,7 @@
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F18" t="s">
@@ -14773,19 +14502,19 @@
       <c r="K18" s="10">
         <v>0.359375</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="17">
         <v>0.35768463073852202</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="18">
         <v>0.373046875</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="18">
         <v>0.40625</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="18">
         <v>0.3828125</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="21">
         <v>0.53125</v>
       </c>
     </row>
@@ -14793,7 +14522,7 @@
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="30"/>
       <c r="F19" t="s">
         <v>23</v>
       </c>
@@ -14812,19 +14541,19 @@
       <c r="K19" s="10">
         <v>0.4375</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="19">
         <v>0.35728542914171602</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="20">
         <v>0.37109375</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="20">
         <v>0.38671875</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="20">
         <v>0.375</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="21">
         <v>0.546875</v>
       </c>
     </row>
@@ -14851,7 +14580,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="13"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -14863,7 +14592,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E24" s="13"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -14875,7 +14604,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" s="13"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -14887,7 +14616,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="13"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -14899,7 +14628,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="13"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -14911,7 +14640,7 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="13"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -14923,7 +14652,7 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="13"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -14935,7 +14664,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="13"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="3"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -14947,7 +14676,7 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="13"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="3"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -14959,7 +14688,7 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="13"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -14971,7 +14700,7 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="13"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="3"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -15002,14 +14731,14 @@
     </row>
     <row r="37" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F37" s="3"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
     </row>
     <row r="38" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F38" s="3"/>
@@ -15023,7 +14752,7 @@
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="13"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="3"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -15035,7 +14764,7 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="13"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="3"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -15047,7 +14776,7 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="13"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="3"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -15059,7 +14788,7 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="13"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="3"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -15071,7 +14800,7 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="13"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="3"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -15083,7 +14812,7 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="13"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="3"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -15095,7 +14824,7 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E45" s="13"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="3"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -15107,7 +14836,7 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E46" s="13"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="3"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -15119,7 +14848,7 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E47" s="13"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -15131,7 +14860,7 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E48" s="13"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="3"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -15143,7 +14872,7 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E49" s="13"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -15201,14 +14930,14 @@
     </row>
     <row r="54" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F54" s="3"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
     </row>
     <row r="55" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F55" s="3"/>
@@ -15222,7 +14951,7 @@
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E56" s="13"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -15234,7 +14963,7 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E57" s="13"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -15246,7 +14975,7 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E58" s="13"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -15258,7 +14987,7 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E59" s="13"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -15270,7 +14999,7 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E60" s="13"/>
+      <c r="E60" s="27"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -15282,7 +15011,7 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="13"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -15294,7 +15023,7 @@
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E62" s="13"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -15306,7 +15035,7 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="13"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -15318,7 +15047,7 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="13"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -15330,7 +15059,7 @@
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E65" s="13"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -15342,7 +15071,7 @@
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E66" s="13"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -15380,8 +15109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15406,24 +15135,15 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="21">
-        <v>8</v>
-      </c>
-      <c r="H4" s="31">
-        <v>16</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-    </row>
-    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -15431,290 +15151,334 @@
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="14">
+        <v>8</v>
+      </c>
+      <c r="H5" s="22">
+        <v>16</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="29" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>0.61290322580645096</v>
+      <c r="G6" s="1">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.52561669829222002</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="29"/>
       <c r="F7" t="s">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0.61100569259962001</v>
+      <c r="G7" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.51233396584440205</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="29"/>
       <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.60531309297912705</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.43453510436432602</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="29"/>
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.46299810246679302</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.41745730550284599</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="29"/>
       <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.453510436432637</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.43643263757115702</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="29"/>
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.47058823529411697</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.44971537001897499</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="29"/>
       <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.57115749525616599</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.61290322580645096</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="29"/>
       <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.68121442125237197</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.69829222011385195</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="29"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>0.48766603415559701</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.423149905123339</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="29"/>
       <c r="F15" t="s">
         <v>25</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>0.55218216318785496</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.53130929791271297</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="29"/>
       <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="G16">
-        <v>0.70777988614800702</v>
+      <c r="G16" s="1">
+        <v>0.63531159999999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.623</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="29"/>
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17">
-        <v>0.70208728652751395</v>
+      <c r="G17" s="1">
+        <v>0.65351000000000004</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.628</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="G18">
-        <v>0.79316888045540801</v>
+      <c r="G18" s="1">
+        <v>0.63022100000000003</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.63500000000000001</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="30"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="30"/>
       <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="G19">
-        <v>0.81024667931688799</v>
+      <c r="G19" s="1">
+        <v>0.67532000000000003</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.66500000000000004</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="10"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="30"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
@@ -15738,7 +15502,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="13"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -15750,7 +15514,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E24" s="13"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -15762,7 +15526,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" s="13"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -15774,7 +15538,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="13"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -15786,7 +15550,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="13"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -15798,7 +15562,7 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="13"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -15810,7 +15574,7 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="13"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -15822,7 +15586,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="13"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="3"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -15834,7 +15598,7 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="13"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="3"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -15846,7 +15610,7 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="13"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -15858,7 +15622,7 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="13"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="3"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -15889,14 +15653,14 @@
     </row>
     <row r="37" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F37" s="3"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
     </row>
     <row r="38" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F38" s="3"/>
@@ -15910,7 +15674,7 @@
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="13"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="3"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -15922,7 +15686,7 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="13"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="3"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -15934,7 +15698,7 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="13"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="3"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -15946,7 +15710,7 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="13"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="3"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -15958,7 +15722,7 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="13"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="3"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -15970,7 +15734,7 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="13"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="3"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -15982,7 +15746,7 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E45" s="13"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="3"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -15994,7 +15758,7 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E46" s="13"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="3"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -16006,7 +15770,7 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E47" s="13"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -16018,7 +15782,7 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E48" s="13"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="3"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -16030,7 +15794,7 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E49" s="13"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -16088,14 +15852,14 @@
     </row>
     <row r="54" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F54" s="3"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
     </row>
     <row r="55" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F55" s="3"/>
@@ -16109,7 +15873,7 @@
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E56" s="13"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -16121,7 +15885,7 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E57" s="13"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -16133,7 +15897,7 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E58" s="13"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -16145,7 +15909,7 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E59" s="13"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -16157,7 +15921,7 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E60" s="13"/>
+      <c r="E60" s="27"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -16169,7 +15933,7 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="13"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -16181,7 +15945,7 @@
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E62" s="13"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -16193,7 +15957,7 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="13"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -16205,7 +15969,7 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="13"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -16217,7 +15981,7 @@
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E65" s="13"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -16229,7 +15993,7 @@
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E66" s="13"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -16242,18 +16006,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="E30:E33"/>
     <mergeCell ref="E39:E45"/>
     <mergeCell ref="E46:E49"/>
     <mergeCell ref="G54:J54"/>
     <mergeCell ref="K54:N54"/>
     <mergeCell ref="E56:E62"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="E6:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16265,8 +16029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q16:Q17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16292,28 +16056,23 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="21">
-        <v>8</v>
-      </c>
-      <c r="H4" s="31">
-        <v>16</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-    </row>
-    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="34"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -16321,26 +16080,28 @@
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="14">
+        <v>8</v>
+      </c>
+      <c r="H5" s="22">
+        <v>16</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="29" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="s">
@@ -16349,304 +16110,304 @@
       <c r="G6" s="10">
         <v>0.47438330170777898</v>
       </c>
-      <c r="H6">
-        <v>0.61290322580645096</v>
+      <c r="H6" s="1">
+        <v>0.51992409867172595</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="29"/>
       <c r="F7" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="10">
         <v>0.49525616698292202</v>
       </c>
-      <c r="H7">
-        <v>0.61100569259962001</v>
+      <c r="H7" s="1">
+        <v>0.52561669829222002</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="29"/>
       <c r="F8" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="10">
         <v>0.48007590132827299</v>
       </c>
-      <c r="H8">
-        <v>0.60531309297912705</v>
+      <c r="H8" s="1">
+        <v>0.50094876660341503</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="29"/>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="10">
         <v>0.49146110056926001</v>
       </c>
-      <c r="H9">
-        <v>0.46299810246679302</v>
+      <c r="H9" s="1">
+        <v>0.54838709677419295</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="29"/>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="10">
         <v>0.47438330170777898</v>
       </c>
-      <c r="H10">
-        <v>0.453510436432637</v>
+      <c r="H10" s="1">
+        <v>0.5426944971537</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="29"/>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="10">
         <v>0.53889943074003699</v>
       </c>
-      <c r="H11">
-        <v>0.47058823529411697</v>
+      <c r="H11" s="1">
+        <v>0.607210626185958</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="29"/>
       <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="10">
-        <v>0.56736242884250399</v>
-      </c>
-      <c r="H12">
-        <v>0.57115749525616599</v>
+      <c r="G12" s="1">
+        <v>0.60756302521008299</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.61480075901328202</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="29"/>
       <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="10">
-        <v>0.55028462998102401</v>
-      </c>
-      <c r="H13">
-        <v>0.68121442125237197</v>
+      <c r="G13" s="1">
+        <v>0.62016806722689</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.71499999999999997</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="29"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="10">
-        <v>0.39089184060720999</v>
-      </c>
-      <c r="H14">
-        <v>0.48766603415559701</v>
+      <c r="G14" s="1">
+        <v>0.46386554621848702</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.47058823529411697</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="29"/>
       <c r="F15" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="10">
         <v>0.53130929791271297</v>
       </c>
-      <c r="H15">
-        <v>0.55218216318785496</v>
+      <c r="H15" s="1">
+        <v>0.58633776091081502</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="29"/>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="10">
         <v>0.57305502846299805</v>
       </c>
-      <c r="H16">
-        <v>0.70777988614800702</v>
+      <c r="H16" s="1">
+        <v>0.66603415559772305</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="29"/>
       <c r="F17" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="10">
         <v>0.55218216318785496</v>
       </c>
-      <c r="H17">
-        <v>0.70208728652751395</v>
+      <c r="H17" s="1">
+        <v>0.65085388994307403</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="10">
-        <v>0.51043643263757099</v>
-      </c>
-      <c r="H18">
-        <v>0.79316888045540801</v>
+      <c r="G18" s="1">
+        <v>0.58319327731092396</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.63022100000000003</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="30"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="30"/>
       <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="10">
-        <v>0.49525616698292202</v>
-      </c>
-      <c r="H19">
-        <v>0.81024667931688799</v>
+      <c r="G19" s="1">
+        <v>0.59915966386554598</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.67532000000000003</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="10"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="30"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
@@ -16670,7 +16431,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="13"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -16682,7 +16443,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E24" s="13"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -16694,7 +16455,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" s="13"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -16706,7 +16467,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="13"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -16718,7 +16479,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="13"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -16730,7 +16491,7 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="13"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -16742,7 +16503,7 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="13"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -16754,7 +16515,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="13"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="3"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -16766,7 +16527,7 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="13"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="3"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -16778,7 +16539,7 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="13"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -16790,7 +16551,7 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="13"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="3"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -16821,14 +16582,14 @@
     </row>
     <row r="37" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F37" s="3"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
     </row>
     <row r="38" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F38" s="3"/>
@@ -16842,7 +16603,7 @@
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="13"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="3"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -16854,7 +16615,7 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="13"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="3"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -16866,7 +16627,7 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="13"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="3"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -16878,7 +16639,7 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="13"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="3"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -16890,7 +16651,7 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="13"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="3"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -16902,7 +16663,7 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="13"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="3"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -16914,7 +16675,7 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E45" s="13"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="3"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -16926,7 +16687,7 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E46" s="13"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="3"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -16938,7 +16699,7 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E47" s="13"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -16950,7 +16711,7 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E48" s="13"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="3"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -16962,7 +16723,7 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E49" s="13"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -17020,14 +16781,14 @@
     </row>
     <row r="54" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F54" s="3"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
     </row>
     <row r="55" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F55" s="3"/>
@@ -17041,7 +16802,7 @@
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E56" s="13"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -17053,7 +16814,7 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E57" s="13"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -17065,7 +16826,7 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E58" s="13"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -17077,7 +16838,7 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E59" s="13"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -17089,7 +16850,7 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E60" s="13"/>
+      <c r="E60" s="27"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -17101,7 +16862,7 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="13"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -17113,7 +16874,7 @@
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E62" s="13"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -17125,7 +16886,7 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="13"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -17137,7 +16898,7 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="13"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -17149,7 +16910,7 @@
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E65" s="13"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -17161,7 +16922,7 @@
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E66" s="13"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -17173,19 +16934,20 @@
       <c r="N66" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="E30:E33"/>
     <mergeCell ref="E39:E45"/>
     <mergeCell ref="E46:E49"/>
     <mergeCell ref="G54:J54"/>
     <mergeCell ref="K54:N54"/>
     <mergeCell ref="E56:E62"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="E6:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
